--- a/Reporte Centros Comerciales New - 04-05-2024.xlsx
+++ b/Reporte Centros Comerciales New - 04-05-2024.xlsx
@@ -64,14 +64,13 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="33.39453125" customWidth="true"/>
-    <col min="2" max="2" width="9.28125" customWidth="true"/>
-    <col min="3" max="3" width="9.203125" customWidth="true"/>
+    <col min="2" max="2" width="9.203125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ELECTRON</t>
+          <t>VISA</t>
         </is>
       </c>
     </row>
@@ -83,11 +82,6 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TARJETA</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
           <t>TOTALES</t>
         </is>
       </c>
@@ -101,9 +95,6 @@
       <c r="B3" t="n">
         <v>375.22</v>
       </c>
-      <c r="C3" t="n">
-        <v>213.39</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -114,9 +105,6 @@
       <c r="B4" t="n">
         <v>239.26</v>
       </c>
-      <c r="C4" t="n">
-        <v>26.34</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -127,9 +115,6 @@
       <c r="B5" t="n">
         <v>2023.53</v>
       </c>
-      <c r="C5" t="n">
-        <v>832.64</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -140,9 +125,6 @@
       <c r="B6" t="n">
         <v>2736.2</v>
       </c>
-      <c r="C6" t="n">
-        <v>1247.35</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -153,9 +135,6 @@
       <c r="B7" t="n">
         <v>2291.22</v>
       </c>
-      <c r="C7" t="n">
-        <v>1117.77</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -166,9 +145,6 @@
       <c r="B8" t="n">
         <v>3253.22</v>
       </c>
-      <c r="C8" t="n">
-        <v>1476.61</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -179,9 +155,6 @@
       <c r="B9" t="n">
         <v>277.05</v>
       </c>
-      <c r="C9" t="n">
-        <v>122.59</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -192,9 +165,6 @@
       <c r="B10" t="n">
         <v>1383.32</v>
       </c>
-      <c r="C10" t="n">
-        <v>629.08</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -205,9 +175,6 @@
       <c r="B11" t="n">
         <v>1120.22</v>
       </c>
-      <c r="C11" t="n">
-        <v>516.12</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -218,9 +185,6 @@
       <c r="B12" t="n">
         <v>199.39</v>
       </c>
-      <c r="C12" t="n">
-        <v>76.56</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -231,9 +195,6 @@
       <c r="B13" t="n">
         <v>1761.69</v>
       </c>
-      <c r="C13" t="n">
-        <v>730.11</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -244,9 +205,6 @@
       <c r="B14" t="n">
         <v>2327.24</v>
       </c>
-      <c r="C14" t="n">
-        <v>841.3</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -257,9 +215,6 @@
       <c r="B15" t="n">
         <v>732.08</v>
       </c>
-      <c r="C15" t="n">
-        <v>362.79</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -270,9 +225,6 @@
       <c r="B16" t="n">
         <v>1992.61</v>
       </c>
-      <c r="C16" t="n">
-        <v>893.32</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -283,9 +235,6 @@
       <c r="B17" t="n">
         <v>625.43</v>
       </c>
-      <c r="C17" t="n">
-        <v>229.41</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -296,9 +245,6 @@
       <c r="B18" t="n">
         <v>451.3</v>
       </c>
-      <c r="C18" t="n">
-        <v>200.95</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -309,9 +255,6 @@
       <c r="B19" t="n">
         <v>695.82</v>
       </c>
-      <c r="C19" t="n">
-        <v>135.85</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -322,9 +265,6 @@
       <c r="B20" t="n">
         <v>797.56</v>
       </c>
-      <c r="C20" t="n">
-        <v>360.6</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -335,9 +275,6 @@
       <c r="B21" t="n">
         <v>676.64</v>
       </c>
-      <c r="C21" t="n">
-        <v>309.34</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -348,973 +285,1440 @@
       <c r="B22" t="n">
         <v>1246.57</v>
       </c>
-      <c r="C22" t="n">
-        <v>689.19</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>C.C. PLAZA CUMBAYA  </t>
+          <t>C.C. PLAZA CUMBAYA</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="C23" t="n">
-        <v>3.15</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>C.C. PLAZA DE LAS AMERICAS</t>
+          <t>C.C. PLAZA CUMBAYA  </t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>198.24</v>
-      </c>
-      <c r="C24" t="n">
-        <v>42.75</v>
+        <v>35.8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>C.C. PLAZA DEL RANCHO</t>
+          <t>C.C. PLAZA DE LAS AMERICAS</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>115.24</v>
-      </c>
-      <c r="C25" t="n">
-        <v>34.39</v>
+        <v>198.24</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>C.C. QUICENTRO SHOPPING</t>
+          <t>C.C. PLAZA DEL RANCHO</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4644.8</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1834.59</v>
+        <v>115.24</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>C.C. QUICENTRO SUR</t>
+          <t>C.C. QUICENTRO SHOPPING</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1964.46</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1009.98</v>
+        <v>4644.8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>C.C. RIVER MALL</t>
+          <t>C.C. QUICENTRO SUR</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>61.75</v>
-      </c>
-      <c r="C28" t="n">
-        <v>28.84</v>
+        <v>1964.46</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>C.C. SAN LUIS SHOPPING</t>
+          <t>C.C. RIVER MALL</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2828.03</v>
-      </c>
-      <c r="C29" t="n">
-        <v>1364.01</v>
+        <v>61.75</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>C.C. SCALA SHOPPING</t>
+          <t>C.C. SAN LUIS SHOPPING</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3628.72</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1280.46</v>
+        <v>2828.03</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>C.C. VENTURA MALL</t>
+          <t>C.C. SCALA SHOPPING</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>709.65</v>
-      </c>
-      <c r="C31" t="n">
-        <v>285.73</v>
+        <v>3628.72</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>C.C. VENTURA MALL</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>709.65</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B33" t="n">
         <v>39392.26</v>
-      </c>
-      <c r="C32" t="n">
-        <v>16895.21</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>MCDEBIT</t>
-        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>NOMBRE</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>TARJETA</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>TOTALES</t>
+          <t>AMEX</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>C.C. ATAHUALPA</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>118.65</v>
-      </c>
-      <c r="C36" t="n">
-        <v>19.69</v>
+          <t>NOMBRE</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>TOTALES</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>C.C. CARACOL</t>
+          <t>C.C. ATAHUALPA</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>150.11</v>
-      </c>
-      <c r="C37" t="n">
-        <v>5.01</v>
+        <v>25.35</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>C.C. EL BOSQUE</t>
+          <t>C.C. CARACOL</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>716.68</v>
-      </c>
-      <c r="C38" t="n">
-        <v>136.12</v>
+        <v>35.4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>C.C. EL CONDADO</t>
+          <t>C.C. EL BOSQUE</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1056.02</v>
-      </c>
-      <c r="C39" t="n">
-        <v>140.98</v>
+        <v>170.98</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>C.C. EL PORTAL</t>
+          <t>C.C. EL CONDADO</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>820.09</v>
-      </c>
-      <c r="C40" t="n">
-        <v>118.08</v>
+        <v>233.16</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>C.C. EL RECREO</t>
+          <t>C.C. EL PORTAL</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1269.03</v>
-      </c>
-      <c r="C41" t="n">
-        <v>136.62</v>
+        <v>218.9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>C.C. GRANADOS OUTLET</t>
+          <t>C.C. EL RECREO</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>124.19</v>
-      </c>
-      <c r="C42" t="n">
-        <v>15.46</v>
+        <v>301.71</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>C.C. I#AQUITO</t>
+          <t>C.C. GRANADOS OUTLET</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>511.93</v>
-      </c>
-      <c r="C43" t="n">
-        <v>71.91</v>
+        <v>20.45</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>C.C. LA PLAZA</t>
+          <t>C.C. I#AQUITO</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>405.99</v>
-      </c>
-      <c r="C44" t="n">
-        <v>88.96</v>
+        <v>152.98</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>C.C. LAGUNA MALL</t>
+          <t>C.C. LA PLAZA</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>102.35</v>
-      </c>
-      <c r="C45" t="n">
-        <v>12.02</v>
+        <v>98.66</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>C.C. MALL DE LOS ANDES</t>
+          <t>C.C. LAGUNA MALL</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>778.08</v>
-      </c>
-      <c r="C46" t="n">
-        <v>117.11</v>
+        <v>24.1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>C.C. MALL EL JARDIN</t>
+          <t>C.C. MALL DE LOS ANDES</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>921.95</v>
-      </c>
-      <c r="C47" t="n">
-        <v>136.16</v>
+        <v>147.34</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>C.C. MALTERIA</t>
+          <t>C.C. MALL EL JARDIN</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>216.38</v>
-      </c>
-      <c r="C48" t="n">
-        <v>16.98</v>
+        <v>224.76</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>C.C. MEGAMAXI</t>
+          <t>C.C. MALTERIA</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>433.57</v>
-      </c>
-      <c r="C49" t="n">
-        <v>107.1</v>
+        <v>55.85</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>C.C. MULTIPLAZA</t>
+          <t>C.C. MEGAMAXI</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>424.25</v>
-      </c>
-      <c r="C50" t="n">
-        <v>52.79</v>
+        <v>139.78</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>C.C. MULTIPLAZA RIOBAMBA</t>
+          <t>C.C. MULTIPLAZA</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>216.58</v>
-      </c>
-      <c r="C51" t="n">
-        <v>72.73</v>
+        <v>54.64</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>C.C. PASEO SAN FRANCISCO</t>
+          <t>C.C. MULTIPLAZA RIOBAMBA</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>346.48</v>
-      </c>
-      <c r="C52" t="n">
-        <v>15.74</v>
+        <v>43.92</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>C.C. PASEO SHOPPING AMBATO</t>
+          <t>C.C. PASEO SAN FRANCISCO</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>452.08</v>
-      </c>
-      <c r="C53" t="n">
-        <v>66.1</v>
+        <v>164.14</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>C.C. PASEO SHOPPING RIOBAMBA</t>
+          <t>C.C. PASEO SHOPPING AMBATO</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>444.74</v>
-      </c>
-      <c r="C54" t="n">
-        <v>108.11</v>
+        <v>77.83</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>C.C. PASEO SHOPPING ST DOMINGO</t>
+          <t>C.C. PASEO SHOPPING RIOBAMBA</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>527.43</v>
-      </c>
-      <c r="C55" t="n">
-        <v>97.6</v>
+        <v>75.52</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>C.C. PLAZA CUMBAYA  </t>
+          <t>C.C. PASEO SHOPPING ST DOMINGO</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>14.06</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.44</v>
+        <v>123.65</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>C.C. PLAZA DE LAS AMERICAS</t>
+          <t>C.C. PLAZA CUMBAYA</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>128.22</v>
-      </c>
-      <c r="C57" t="n">
-        <v>6.96</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>C.C. PLAZA DEL RANCHO</t>
+          <t>C.C. PLAZA CUMBAYA  </t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>55.36</v>
-      </c>
-      <c r="C58" t="n">
-        <v>3.58</v>
+        <v>6.09</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>C.C. QUICENTRO SHOPPING</t>
+          <t>C.C. PLAZA DE LAS AMERICAS</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2034.52</v>
-      </c>
-      <c r="C59" t="n">
-        <v>212.39</v>
+        <v>33.37</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>C.C. QUICENTRO SUR</t>
+          <t>C.C. PLAZA DEL RANCHO</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>700.06</v>
-      </c>
-      <c r="C60" t="n">
-        <v>82.49</v>
+        <v>16.26</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>C.C. RIVER MALL</t>
+          <t>C.C. QUICENTRO SHOPPING</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>31.91</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2.4</v>
+        <v>533.53</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>C.C. SAN LUIS SHOPPING</t>
+          <t>C.C. QUICENTRO SUR</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>908.11</v>
-      </c>
-      <c r="C62" t="n">
-        <v>136.63</v>
+        <v>171.53</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>C.C. SCALA SHOPPING</t>
+          <t>C.C. RIVER MALL</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1040.66</v>
-      </c>
-      <c r="C63" t="n">
-        <v>150.24</v>
+        <v>8.79</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>C.C. VENTURA MALL</t>
+          <t>C.C. SAN LUIS SHOPPING</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>131.29</v>
-      </c>
-      <c r="C64" t="n">
-        <v>28.84</v>
+        <v>229.75</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>C.C. SCALA SHOPPING</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>15080.77</v>
-      </c>
-      <c r="C65" t="n">
-        <v>2159.24</v>
+        <v>340.3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>C.C. VENTURA MALL</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>46.74</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>INTERDIN</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>NOMBRE</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>TARJETA</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>TOTALES</t>
-        </is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>3775.48</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>C.C. ATAHUALPA</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>375.22</v>
-      </c>
-      <c r="C69" t="n">
-        <v>20.56</v>
+          <t>DINERS</t>
+        </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>C.C. CARACOL</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>239.26</v>
-      </c>
-      <c r="C70" t="n">
-        <v>47.83</v>
+          <t>NOMBRE</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>TOTALES</t>
+        </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>C.C. EL BOSQUE</t>
+          <t>C.C. ATAHUALPA</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2023.53</v>
-      </c>
-      <c r="C71" t="n">
-        <v>298.63</v>
+        <v>68.88</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>C.C. EL CONDADO</t>
+          <t>C.C. CARACOL</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2736.2</v>
-      </c>
-      <c r="C72" t="n">
-        <v>321.75</v>
+        <v>142.25</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>C.C. EL PORTAL</t>
+          <t>C.C. EL BOSQUE</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2291.22</v>
-      </c>
-      <c r="C73" t="n">
-        <v>252.2</v>
+        <v>1310.55</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>C.C. EL RECREO</t>
+          <t>C.C. EL CONDADO</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>3253.22</v>
-      </c>
-      <c r="C74" t="n">
-        <v>293.48</v>
+        <v>1213.99</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>C.C. GRANADOS OUTLET</t>
+          <t>C.C. EL PORTAL</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>277.05</v>
-      </c>
-      <c r="C75" t="n">
-        <v>38.07</v>
+        <v>849.47</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>C.C. I#AQUITO</t>
+          <t>C.C. EL RECREO</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1383.32</v>
-      </c>
-      <c r="C76" t="n">
-        <v>191.73</v>
+        <v>789.88</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>C.C. LA PLAZA</t>
+          <t>C.C. GRANADOS OUTLET</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1120.22</v>
-      </c>
-      <c r="C77" t="n">
-        <v>119.72</v>
+        <v>135.83</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>C.C. LAGUNA MALL</t>
+          <t>C.C. I#AQUITO</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>199.39</v>
-      </c>
-      <c r="C78" t="n">
-        <v>21.31</v>
+        <v>728.04</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>C.C. MALL DE LOS ANDES</t>
+          <t>C.C. LA PLAZA</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1761.69</v>
-      </c>
-      <c r="C79" t="n">
-        <v>204.44</v>
+        <v>387.19</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>C.C. MALL EL JARDIN</t>
+          <t>C.C. LAGUNA MALL</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2327.24</v>
-      </c>
-      <c r="C80" t="n">
-        <v>374.55</v>
+        <v>79.88</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>C.C. MALTERIA</t>
+          <t>C.C. MALL DE LOS ANDES</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>732.08</v>
-      </c>
-      <c r="C81" t="n">
-        <v>68.89</v>
+        <v>725.73</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>C.C. MEGAMAXI</t>
+          <t>C.C. MALL EL JARDIN</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1992.61</v>
-      </c>
-      <c r="C82" t="n">
-        <v>258.91</v>
+        <v>1464.03</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>C.C. MULTIPLAZA</t>
+          <t>C.C. MALTERIA</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>625.43</v>
-      </c>
-      <c r="C83" t="n">
-        <v>73.02</v>
+        <v>230.34</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>C.C. MULTIPLAZA RIOBAMBA</t>
+          <t>C.C. MEGAMAXI</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>451.3</v>
-      </c>
-      <c r="C84" t="n">
-        <v>46.23</v>
+        <v>904.96</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>C.C. PASEO SAN FRANCISCO</t>
+          <t>C.C. MULTIPLAZA</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>695.82</v>
-      </c>
-      <c r="C85" t="n">
-        <v>112.73</v>
+        <v>203.79</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>C.C. PASEO SHOPPING AMBATO</t>
+          <t>C.C. MULTIPLAZA RIOBAMBA</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>797.56</v>
-      </c>
-      <c r="C86" t="n">
-        <v>93.41</v>
+        <v>164.05</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>C.C. PASEO SHOPPING RIOBAMBA</t>
+          <t>C.C. PASEO SAN FRANCISCO</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>676.64</v>
-      </c>
-      <c r="C87" t="n">
-        <v>75.52</v>
+        <v>890.91</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>C.C. PASEO SHOPPING ST DOMINGO</t>
+          <t>C.C. PASEO SHOPPING AMBATO</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1246.57</v>
-      </c>
-      <c r="C88" t="n">
-        <v>99.41</v>
+        <v>257.11</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>C.C. PLAZA CUMBAYA  </t>
+          <t>C.C. PASEO SHOPPING RIOBAMBA</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="C89" t="n">
-        <v>9.29</v>
+        <v>183.11</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>C.C. PLAZA DE LAS AMERICAS</t>
+          <t>C.C. PASEO SHOPPING ST DOMINGO</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>198.24</v>
-      </c>
-      <c r="C90" t="n">
-        <v>28.61</v>
+        <v>207.56</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>C.C. PLAZA DEL RANCHO</t>
+          <t>C.C. PLAZA CUMBAYA</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>115.24</v>
-      </c>
-      <c r="C91" t="n">
-        <v>19.86</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>C.C. QUICENTRO SHOPPING</t>
+          <t>C.C. PLAZA CUMBAYA  </t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>4644.8</v>
-      </c>
-      <c r="C92" t="n">
-        <v>685.59</v>
+        <v>81.89</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>C.C. QUICENTRO SUR</t>
+          <t>C.C. PLAZA DE LAS AMERICAS</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1964.46</v>
-      </c>
-      <c r="C93" t="n">
-        <v>154.51</v>
+        <v>170.23</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>C.C. RIVER MALL</t>
+          <t>C.C. PLAZA DEL RANCHO</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>61.75</v>
-      </c>
-      <c r="C94" t="n">
-        <v>5.53</v>
+        <v>109.01</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>C.C. SAN LUIS SHOPPING</t>
+          <t>C.C. QUICENTRO SHOPPING</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>2828.03</v>
-      </c>
-      <c r="C95" t="n">
-        <v>348.82</v>
+        <v>2342.02</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>C.C. SCALA SHOPPING</t>
+          <t>C.C. QUICENTRO SUR</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>3628.72</v>
-      </c>
-      <c r="C96" t="n">
-        <v>643.6</v>
+        <v>411.04</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>C.C. VENTURA MALL</t>
+          <t>C.C. RIVER MALL</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>709.65</v>
-      </c>
-      <c r="C97" t="n">
-        <v>111.44</v>
+        <v>24.24</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
+          <t>C.C. SAN LUIS SHOPPING</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>1370.49</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>C.C. SCALA SHOPPING</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>2841.3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>C.C. VENTURA MALL</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>581.38</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B98" t="n">
-        <v>39392.26</v>
-      </c>
-      <c r="C98" t="n">
-        <v>5019.64</v>
+      <c r="B101" t="n">
+        <v>18869.15</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>MASTERCARD</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>NOMBRE</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>TOTALES</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>C.C. ATAHUALPA</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>118.65</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>C.C. CARACOL</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>150.11</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>C.C. EL BOSQUE</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>716.68</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>C.C. EL CONDADO</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>1056.02</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>C.C. EL PORTAL</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>820.09</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>C.C. EL RECREO</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>1269.03</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>C.C. GRANADOS OUTLET</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>124.19</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>C.C. I#AQUITO</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>511.93</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>C.C. LA PLAZA</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>405.99</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>C.C. LAGUNA MALL</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>102.35</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>C.C. MALL DE LOS ANDES</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>778.08</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>C.C. MALL EL JARDIN</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>921.95</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>C.C. MALTERIA</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>216.38</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>C.C. MEGAMAXI</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>433.57</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>C.C. MULTIPLAZA</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>424.25</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>C.C. MULTIPLAZA RIOBAMBA</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>216.58</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>C.C. PASEO SAN FRANCISCO</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>346.48</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>C.C. PASEO SHOPPING AMBATO</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>452.08</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>C.C. PASEO SHOPPING RIOBAMBA</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>444.74</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>C.C. PASEO SHOPPING ST DOMINGO</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>527.43</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>C.C. PLAZA CUMBAYA</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>C.C. PLAZA CUMBAYA  </t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>14.06</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>C.C. PLAZA DE LAS AMERICAS</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>128.22</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>C.C. PLAZA DEL RANCHO</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>55.36</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>C.C. QUICENTRO SHOPPING</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>2034.52</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>C.C. QUICENTRO SUR</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>700.06</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>C.C. RIVER MALL</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>31.91</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>C.C. SAN LUIS SHOPPING</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>908.11</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>C.C. SCALA SHOPPING</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>1040.66</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>C.C. VENTURA MALL</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>131.29</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>15080.77</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>DISCOVER</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>NOMBRE</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>TOTALES</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>C.C. ATAHUALPA</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>15.02</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>C.C. CARACOL</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>13.07</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>C.C. EL BOSQUE</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>58.14</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>C.C. EL CONDADO</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>130.56</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>C.C. EL PORTAL</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>115.17</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>C.C. EL RECREO</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>148.65</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>C.C. GRANADOS OUTLET</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>17.9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>C.C. I#AQUITO</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>69.27</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>C.C. LA PLAZA</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>36.18</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>C.C. LAGUNA MALL</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>10.39</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>C.C. MALL DE LOS ANDES</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>71.56</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>C.C. MALL EL JARDIN</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>86.25</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>C.C. MALTERIA</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>27.91</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>C.C. MEGAMAXI</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>49.3</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>C.C. MULTIPLAZA</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>21.92</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>C.C. MULTIPLAZA RIOBAMBA</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>20.77</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>C.C. PASEO SAN FRANCISCO</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>25.98</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>C.C. PASEO SHOPPING AMBATO</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>27.78</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>C.C. PASEO SHOPPING RIOBAMBA</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>28.4</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>C.C. PASEO SHOPPING ST DOMINGO</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>46.13</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>C.C. PLAZA CUMBAYA</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>C.C. PLAZA CUMBAYA  </t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>C.C. PLAZA DE LAS AMERICAS</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>12.22</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>C.C. PLAZA DEL RANCHO</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>C.C. QUICENTRO SHOPPING</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>213.16</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>C.C. QUICENTRO SUR</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>85.2</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>C.C. RIVER MALL</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>C.C. SAN LUIS SHOPPING</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>118.64</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>C.C. SCALA SHOPPING</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>82.51</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>C.C. VENTURA MALL</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>11.73</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>1552.0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A137:B137"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1329,14 +1733,13 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="32.65625" customWidth="true"/>
-    <col min="2" max="2" width="9.28125" customWidth="true"/>
-    <col min="3" max="3" width="8.90234375" customWidth="true"/>
+    <col min="2" max="2" width="9.26953125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ELECTRON</t>
+          <t>VISA</t>
         </is>
       </c>
     </row>
@@ -1348,11 +1751,6 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TARJETA</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
           <t>TOTALES</t>
         </is>
       </c>
@@ -1366,9 +1764,6 @@
       <c r="B3" t="n">
         <v>591.85</v>
       </c>
-      <c r="C3" t="n">
-        <v>149.61</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1379,9 +1774,6 @@
       <c r="B4" t="n">
         <v>64.51</v>
       </c>
-      <c r="C4" t="n">
-        <v>13.7</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1392,9 +1784,6 @@
       <c r="B5" t="n">
         <v>165.65</v>
       </c>
-      <c r="C5" t="n">
-        <v>15.66</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1405,9 +1794,6 @@
       <c r="B6" t="n">
         <v>164.77</v>
       </c>
-      <c r="C6" t="n">
-        <v>18.9</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1418,9 +1804,6 @@
       <c r="B7" t="n">
         <v>41.63</v>
       </c>
-      <c r="C7" t="n">
-        <v>6.3</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1431,9 +1814,6 @@
       <c r="B8" t="n">
         <v>81.07</v>
       </c>
-      <c r="C8" t="n">
-        <v>12.2</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1444,9 +1824,6 @@
       <c r="B9" t="n">
         <v>1005.94</v>
       </c>
-      <c r="C9" t="n">
-        <v>335.22</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1457,9 +1834,6 @@
       <c r="B10" t="n">
         <v>85.37</v>
       </c>
-      <c r="C10" t="n">
-        <v>9.37</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1470,9 +1844,6 @@
       <c r="B11" t="n">
         <v>204.15</v>
       </c>
-      <c r="C11" t="n">
-        <v>68.29</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1483,9 +1854,6 @@
       <c r="B12" t="n">
         <v>55.21</v>
       </c>
-      <c r="C12" t="n">
-        <v>9.45</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1496,9 +1864,6 @@
       <c r="B13" t="n">
         <v>374.06</v>
       </c>
-      <c r="C13" t="n">
-        <v>100.7</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1509,9 +1874,6 @@
       <c r="B14" t="n">
         <v>104.27</v>
       </c>
-      <c r="C14" t="n">
-        <v>23.78</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1522,9 +1884,6 @@
       <c r="B15" t="n">
         <v>168.96</v>
       </c>
-      <c r="C15" t="n">
-        <v>53.14</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1535,9 +1894,6 @@
       <c r="B16" t="n">
         <v>94.89</v>
       </c>
-      <c r="C16" t="n">
-        <v>25.71</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1548,9 +1904,6 @@
       <c r="B17" t="n">
         <v>275.72</v>
       </c>
-      <c r="C17" t="n">
-        <v>28.59</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1561,9 +1914,6 @@
       <c r="B18" t="n">
         <v>6.98</v>
       </c>
-      <c r="C18" t="n">
-        <v>0.64</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1574,9 +1924,6 @@
       <c r="B19" t="n">
         <v>72.42</v>
       </c>
-      <c r="C19" t="n">
-        <v>13.81</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1587,9 +1934,6 @@
       <c r="B20" t="n">
         <v>1842.36</v>
       </c>
-      <c r="C20" t="n">
-        <v>696.93</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1600,9 +1944,6 @@
       <c r="B21" t="n">
         <v>3463.53</v>
       </c>
-      <c r="C21" t="n">
-        <v>956.34</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1613,9 +1954,6 @@
       <c r="B22" t="n">
         <v>928.61</v>
       </c>
-      <c r="C22" t="n">
-        <v>288.92</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1626,9 +1964,6 @@
       <c r="B23" t="n">
         <v>151.28</v>
       </c>
-      <c r="C23" t="n">
-        <v>58.39</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1639,9 +1974,6 @@
       <c r="B24" t="n">
         <v>111.25</v>
       </c>
-      <c r="C24" t="n">
-        <v>21.78</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1652,9 +1984,6 @@
       <c r="B25" t="n">
         <v>514.87</v>
       </c>
-      <c r="C25" t="n">
-        <v>249.73</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1665,9 +1994,6 @@
       <c r="B26" t="n">
         <v>358.02</v>
       </c>
-      <c r="C26" t="n">
-        <v>172.74</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1678,9 +2004,6 @@
       <c r="B27" t="n">
         <v>51.41</v>
       </c>
-      <c r="C27" t="n">
-        <v>23.44</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1691,9 +2014,6 @@
       <c r="B28" t="n">
         <v>655.99</v>
       </c>
-      <c r="C28" t="n">
-        <v>277.25</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1704,9 +2024,6 @@
       <c r="B29" t="n">
         <v>1481.05</v>
       </c>
-      <c r="C29" t="n">
-        <v>602.64</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1717,9 +2034,6 @@
       <c r="B30" t="n">
         <v>1050.24</v>
       </c>
-      <c r="C30" t="n">
-        <v>457.61</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1730,9 +2044,6 @@
       <c r="B31" t="n">
         <v>407.11</v>
       </c>
-      <c r="C31" t="n">
-        <v>171.33</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1743,9 +2054,6 @@
       <c r="B32" t="n">
         <v>1024.04</v>
       </c>
-      <c r="C32" t="n">
-        <v>465.49</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1756,9 +2064,6 @@
       <c r="B33" t="n">
         <v>326.07</v>
       </c>
-      <c r="C33" t="n">
-        <v>148.97</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1769,9 +2074,6 @@
       <c r="B34" t="n">
         <v>1066.97</v>
       </c>
-      <c r="C34" t="n">
-        <v>460.9</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1782,9 +2084,6 @@
       <c r="B35" t="n">
         <v>865.4</v>
       </c>
-      <c r="C35" t="n">
-        <v>424.62</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1795,9 +2094,6 @@
       <c r="B36" t="n">
         <v>504.06</v>
       </c>
-      <c r="C36" t="n">
-        <v>240.94</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1808,9 +2104,6 @@
       <c r="B37" t="n">
         <v>97.42</v>
       </c>
-      <c r="C37" t="n">
-        <v>21.74</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1821,9 +2114,6 @@
       <c r="B38" t="n">
         <v>426.44</v>
       </c>
-      <c r="C38" t="n">
-        <v>159.07</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1834,9 +2124,6 @@
       <c r="B39" t="n">
         <v>27.26</v>
       </c>
-      <c r="C39" t="n">
-        <v>8.01</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1847,9 +2134,6 @@
       <c r="B40" t="n">
         <v>117.9</v>
       </c>
-      <c r="C40" t="n">
-        <v>15.78</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1860,9 +2144,6 @@
       <c r="B41" t="n">
         <v>220.53</v>
       </c>
-      <c r="C41" t="n">
-        <v>43.65</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1873,9 +2154,6 @@
       <c r="B42" t="n">
         <v>387.02</v>
       </c>
-      <c r="C42" t="n">
-        <v>145.52</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1886,9 +2164,6 @@
       <c r="B43" t="n">
         <v>143.48</v>
       </c>
-      <c r="C43" t="n">
-        <v>7.68</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1899,9 +2174,6 @@
       <c r="B44" t="n">
         <v>110.8</v>
       </c>
-      <c r="C44" t="n">
-        <v>63.0</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1912,9 +2184,6 @@
       <c r="B45" t="n">
         <v>922.46</v>
       </c>
-      <c r="C45" t="n">
-        <v>247.34</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1925,9 +2194,6 @@
       <c r="B46" t="n">
         <v>1686.05</v>
       </c>
-      <c r="C46" t="n">
-        <v>524.28</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1938,9 +2204,6 @@
       <c r="B47" t="n">
         <v>2720.74</v>
       </c>
-      <c r="C47" t="n">
-        <v>814.45</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1951,9 +2214,6 @@
       <c r="B48" t="n">
         <v>1195.25</v>
       </c>
-      <c r="C48" t="n">
-        <v>300.19</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1964,9 +2224,6 @@
       <c r="B49" t="n">
         <v>1388.14</v>
       </c>
-      <c r="C49" t="n">
-        <v>592.41</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1977,9 +2234,6 @@
       <c r="B50" t="n">
         <v>1070.53</v>
       </c>
-      <c r="C50" t="n">
-        <v>444.63</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1990,9 +2244,6 @@
       <c r="B51" t="n">
         <v>55.36</v>
       </c>
-      <c r="C51" t="n">
-        <v>2.57</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2003,9 +2254,6 @@
       <c r="B52" t="n">
         <v>2260.57</v>
       </c>
-      <c r="C52" t="n">
-        <v>705.54</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2016,9 +2264,6 @@
       <c r="B53" t="n">
         <v>319.47</v>
       </c>
-      <c r="C53" t="n">
-        <v>118.12</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2029,9 +2274,6 @@
       <c r="B54" t="n">
         <v>15.03</v>
       </c>
-      <c r="C54" t="n">
-        <v>2.46</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2042,9 +2284,6 @@
       <c r="B55" t="n">
         <v>1259.48</v>
       </c>
-      <c r="C55" t="n">
-        <v>237.35</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2055,14 +2294,11 @@
       <c r="B56" t="n">
         <v>32783.64</v>
       </c>
-      <c r="C56" t="n">
-        <v>11056.88</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>MCDEBIT</t>
+          <t>AMEX</t>
         </is>
       </c>
     </row>
@@ -2074,11 +2310,6 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TARJETA</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
           <t>TOTALES</t>
         </is>
       </c>
@@ -2090,10 +2321,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>399.17</v>
-      </c>
-      <c r="C60" t="n">
-        <v>109.18</v>
+        <v>110.05</v>
       </c>
     </row>
     <row r="61">
@@ -2103,10 +2331,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>43.18</v>
-      </c>
-      <c r="C61" t="n">
-        <v>7.33</v>
+        <v>22.47</v>
       </c>
     </row>
     <row r="62">
@@ -2116,10 +2341,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>103.58</v>
-      </c>
-      <c r="C62" t="n">
-        <v>10.33</v>
+        <v>54.87</v>
       </c>
     </row>
     <row r="63">
@@ -2129,10 +2351,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>122.93</v>
-      </c>
-      <c r="C63" t="n">
-        <v>11.36</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="64">
@@ -2142,10 +2361,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>42.24</v>
-      </c>
-      <c r="C64" t="n">
-        <v>6.75</v>
+        <v>23.41</v>
       </c>
     </row>
     <row r="65">
@@ -2155,10 +2371,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>53.83</v>
-      </c>
-      <c r="C65" t="n">
-        <v>7.37</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="66">
@@ -2168,10 +2381,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>835.8</v>
-      </c>
-      <c r="C66" t="n">
-        <v>187.5</v>
+        <v>224.33</v>
       </c>
     </row>
     <row r="67">
@@ -2181,10 +2391,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>40.04</v>
-      </c>
-      <c r="C67" t="n">
-        <v>4.8</v>
+        <v>33.17</v>
       </c>
     </row>
     <row r="68">
@@ -2194,10 +2401,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>163.9</v>
-      </c>
-      <c r="C68" t="n">
-        <v>40.13</v>
+        <v>57.45</v>
       </c>
     </row>
     <row r="69">
@@ -2207,10 +2411,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>49.64</v>
-      </c>
-      <c r="C69" t="n">
-        <v>5.2</v>
+        <v>13.09</v>
       </c>
     </row>
     <row r="70">
@@ -2220,10 +2421,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>232.67</v>
-      </c>
-      <c r="C70" t="n">
-        <v>70.39</v>
+        <v>72.32</v>
       </c>
     </row>
     <row r="71">
@@ -2233,10 +2431,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>79.61</v>
-      </c>
-      <c r="C71" t="n">
-        <v>11.05</v>
+        <v>74.84</v>
       </c>
     </row>
     <row r="72">
@@ -2246,10 +2441,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>150.12</v>
-      </c>
-      <c r="C72" t="n">
-        <v>26.84</v>
+        <v>42.71</v>
       </c>
     </row>
     <row r="73">
@@ -2259,10 +2451,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>65.48</v>
-      </c>
-      <c r="C73" t="n">
-        <v>6.49</v>
+        <v>23.41</v>
       </c>
     </row>
     <row r="74">
@@ -2272,10 +2461,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>139.25</v>
-      </c>
-      <c r="C74" t="n">
-        <v>16.12</v>
+        <v>208.56</v>
       </c>
     </row>
     <row r="75">
@@ -2285,10 +2471,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="C75" t="n">
-        <v>1.03</v>
+        <v>10.84</v>
       </c>
     </row>
     <row r="76">
@@ -2298,10 +2481,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>50.64</v>
-      </c>
-      <c r="C76" t="n">
-        <v>8.88</v>
+        <v>48.27</v>
       </c>
     </row>
     <row r="77">
@@ -2311,10 +2491,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>903.98</v>
-      </c>
-      <c r="C77" t="n">
-        <v>201.12</v>
+        <v>296.9</v>
       </c>
     </row>
     <row r="78">
@@ -2324,10 +2501,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2692.78</v>
-      </c>
-      <c r="C78" t="n">
-        <v>503.77</v>
+        <v>800.57</v>
       </c>
     </row>
     <row r="79">
@@ -2337,10 +2511,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>805.16</v>
-      </c>
-      <c r="C79" t="n">
-        <v>200.3</v>
+        <v>255.18</v>
       </c>
     </row>
     <row r="80">
@@ -2350,10 +2521,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>141.97</v>
-      </c>
-      <c r="C80" t="n">
-        <v>18.02</v>
+        <v>52.27</v>
       </c>
     </row>
     <row r="81">
@@ -2363,10 +2531,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>58.32</v>
-      </c>
-      <c r="C81" t="n">
-        <v>4.38</v>
+        <v>20.48</v>
       </c>
     </row>
     <row r="82">
@@ -2376,10 +2541,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>381.87</v>
-      </c>
-      <c r="C82" t="n">
-        <v>70.15</v>
+        <v>98.9</v>
       </c>
     </row>
     <row r="83">
@@ -2389,10 +2551,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>179.38</v>
-      </c>
-      <c r="C83" t="n">
-        <v>11.37</v>
+        <v>57.65</v>
       </c>
     </row>
     <row r="84">
@@ -2402,10 +2561,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>43.57</v>
-      </c>
-      <c r="C84" t="n">
-        <v>6.81</v>
+        <v>12.84</v>
       </c>
     </row>
     <row r="85">
@@ -2415,10 +2571,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>665.38</v>
-      </c>
-      <c r="C85" t="n">
-        <v>130.72</v>
+        <v>174.56</v>
       </c>
     </row>
     <row r="86">
@@ -2428,10 +2581,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>859.56</v>
-      </c>
-      <c r="C86" t="n">
-        <v>109.48</v>
+        <v>216.92</v>
       </c>
     </row>
     <row r="87">
@@ -2441,10 +2591,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>680.24</v>
-      </c>
-      <c r="C87" t="n">
-        <v>175.49</v>
+        <v>157.76</v>
       </c>
     </row>
     <row r="88">
@@ -2454,10 +2601,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>429.01</v>
-      </c>
-      <c r="C88" t="n">
-        <v>121.04</v>
+        <v>98.38</v>
       </c>
     </row>
     <row r="89">
@@ -2467,10 +2611,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1026.69</v>
-      </c>
-      <c r="C89" t="n">
-        <v>268.98</v>
+        <v>222.61</v>
       </c>
     </row>
     <row r="90">
@@ -2480,10 +2621,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>369.26</v>
-      </c>
-      <c r="C90" t="n">
-        <v>54.96</v>
+        <v>83.61</v>
       </c>
     </row>
     <row r="91">
@@ -2493,10 +2631,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>615.1</v>
-      </c>
-      <c r="C91" t="n">
-        <v>119.76</v>
+        <v>134.55</v>
       </c>
     </row>
     <row r="92">
@@ -2506,10 +2641,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>428.99</v>
-      </c>
-      <c r="C92" t="n">
-        <v>40.86</v>
+        <v>99.57</v>
       </c>
     </row>
     <row r="93">
@@ -2519,10 +2651,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>456.83</v>
-      </c>
-      <c r="C93" t="n">
-        <v>89.78</v>
+        <v>104.33</v>
       </c>
     </row>
     <row r="94">
@@ -2532,10 +2661,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>76.78</v>
-      </c>
-      <c r="C94" t="n">
-        <v>5.99</v>
+        <v>38.99</v>
       </c>
     </row>
     <row r="95">
@@ -2545,10 +2671,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>157.38</v>
-      </c>
-      <c r="C95" t="n">
-        <v>31.42</v>
+        <v>55.44</v>
       </c>
     </row>
     <row r="96">
@@ -2558,10 +2681,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>26.96</v>
-      </c>
-      <c r="C96" t="n">
-        <v>5.69</v>
+        <v>12.99</v>
       </c>
     </row>
     <row r="97">
@@ -2571,10 +2691,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>66.18</v>
-      </c>
-      <c r="C97" t="n">
-        <v>8.96</v>
+        <v>26.37</v>
       </c>
     </row>
     <row r="98">
@@ -2584,10 +2701,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>150.53</v>
-      </c>
-      <c r="C98" t="n">
-        <v>21.78</v>
+        <v>101.86</v>
       </c>
     </row>
     <row r="99">
@@ -2597,10 +2711,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>374.24</v>
-      </c>
-      <c r="C99" t="n">
-        <v>95.15</v>
+        <v>89.79</v>
       </c>
     </row>
     <row r="100">
@@ -2610,10 +2721,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>100.22</v>
-      </c>
-      <c r="C100" t="n">
-        <v>2.36</v>
+        <v>37.39</v>
       </c>
     </row>
     <row r="101">
@@ -2623,10 +2731,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>29.49</v>
-      </c>
-      <c r="C101" t="n">
-        <v>4.91</v>
+        <v>9.05</v>
       </c>
     </row>
     <row r="102">
@@ -2636,10 +2741,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>727.92</v>
-      </c>
-      <c r="C102" t="n">
-        <v>173.83</v>
+        <v>225.7</v>
       </c>
     </row>
     <row r="103">
@@ -2649,10 +2751,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1609.61</v>
-      </c>
-      <c r="C103" t="n">
-        <v>371.58</v>
+        <v>369.58</v>
       </c>
     </row>
     <row r="104">
@@ -2662,10 +2761,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>2504.44</v>
-      </c>
-      <c r="C104" t="n">
-        <v>522.23</v>
+        <v>623.67</v>
       </c>
     </row>
     <row r="105">
@@ -2675,10 +2771,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1079.5</v>
-      </c>
-      <c r="C105" t="n">
-        <v>201.26</v>
+        <v>464.47</v>
       </c>
     </row>
     <row r="106">
@@ -2688,10 +2781,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1386.46</v>
-      </c>
-      <c r="C106" t="n">
-        <v>308.76</v>
+        <v>315.24</v>
       </c>
     </row>
     <row r="107">
@@ -2701,10 +2791,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1133.36</v>
-      </c>
-      <c r="C107" t="n">
-        <v>266.76</v>
+        <v>261.68</v>
       </c>
     </row>
     <row r="108">
@@ -2714,10 +2801,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>27.17</v>
-      </c>
-      <c r="C108" t="n">
-        <v>2.28</v>
+        <v>20.75</v>
       </c>
     </row>
     <row r="109">
@@ -2727,10 +2811,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1786.19</v>
-      </c>
-      <c r="C109" t="n">
-        <v>317.79</v>
+        <v>504.3</v>
       </c>
     </row>
     <row r="110">
@@ -2740,10 +2821,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>227.26</v>
-      </c>
-      <c r="C110" t="n">
-        <v>40.27</v>
+        <v>79.02</v>
       </c>
     </row>
     <row r="111">
@@ -2753,10 +2831,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>9.97</v>
-      </c>
-      <c r="C111" t="n">
-        <v>2.44</v>
+        <v>17.44</v>
       </c>
     </row>
     <row r="112">
@@ -2766,10 +2841,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>680.91</v>
-      </c>
-      <c r="C112" t="n">
-        <v>137.03</v>
+        <v>323.35</v>
       </c>
     </row>
     <row r="113">
@@ -2779,16 +2851,13 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>25468.95</v>
-      </c>
-      <c r="C113" t="n">
-        <v>5178.23</v>
+        <v>7571.16</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>INTERDIN</t>
+          <t>DINERS</t>
         </is>
       </c>
     </row>
@@ -2800,11 +2869,6 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TARJETA</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
           <t>TOTALES</t>
         </is>
       </c>
@@ -2816,10 +2880,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>591.85</v>
-      </c>
-      <c r="C117" t="n">
-        <v>82.82</v>
+        <v>232.04</v>
       </c>
     </row>
     <row r="118">
@@ -2829,10 +2890,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>64.51</v>
-      </c>
-      <c r="C118" t="n">
-        <v>5.61</v>
+        <v>27.33</v>
       </c>
     </row>
     <row r="119">
@@ -2842,10 +2900,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>165.65</v>
-      </c>
-      <c r="C119" t="n">
-        <v>34.03</v>
+        <v>85.26</v>
       </c>
     </row>
     <row r="120">
@@ -2855,10 +2910,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>164.77</v>
-      </c>
-      <c r="C120" t="n">
-        <v>34.05</v>
+        <v>125.8</v>
       </c>
     </row>
     <row r="121">
@@ -2868,10 +2920,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="C121" t="n">
-        <v>6.57</v>
+        <v>41.27</v>
       </c>
     </row>
     <row r="122">
@@ -2881,10 +2930,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>81.07</v>
-      </c>
-      <c r="C122" t="n">
-        <v>13.23</v>
+        <v>75.14</v>
       </c>
     </row>
     <row r="123">
@@ -2894,10 +2940,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1005.94</v>
-      </c>
-      <c r="C123" t="n">
-        <v>120.21</v>
+        <v>274.87</v>
       </c>
     </row>
     <row r="124">
@@ -2907,10 +2950,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>85.37</v>
-      </c>
-      <c r="C124" t="n">
-        <v>9.43</v>
+        <v>77.33</v>
       </c>
     </row>
     <row r="125">
@@ -2920,10 +2960,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>204.15</v>
-      </c>
-      <c r="C125" t="n">
-        <v>26.45</v>
+        <v>72.17</v>
       </c>
     </row>
     <row r="126">
@@ -2933,10 +2970,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>55.21</v>
-      </c>
-      <c r="C126" t="n">
-        <v>5.77</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="127">
@@ -2946,10 +2980,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>374.06</v>
-      </c>
-      <c r="C127" t="n">
-        <v>61.26</v>
+        <v>188.4</v>
       </c>
     </row>
     <row r="128">
@@ -2959,10 +2990,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>104.27</v>
-      </c>
-      <c r="C128" t="n">
-        <v>14.07</v>
+        <v>102.86</v>
       </c>
     </row>
     <row r="129">
@@ -2972,10 +3000,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>168.96</v>
-      </c>
-      <c r="C129" t="n">
-        <v>26.39</v>
+        <v>45.86</v>
       </c>
     </row>
     <row r="130">
@@ -2985,10 +3010,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>94.89</v>
-      </c>
-      <c r="C130" t="n">
-        <v>16.31</v>
+        <v>48.73</v>
       </c>
     </row>
     <row r="131">
@@ -2998,10 +3020,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>275.72</v>
-      </c>
-      <c r="C131" t="n">
-        <v>48.42</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="132">
@@ -3011,10 +3030,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="C132" t="n">
-        <v>1.61</v>
+        <v>23.02</v>
       </c>
     </row>
     <row r="133">
@@ -3024,10 +3040,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>72.42</v>
-      </c>
-      <c r="C133" t="n">
-        <v>8.67</v>
+        <v>80.86</v>
       </c>
     </row>
     <row r="134">
@@ -3037,10 +3050,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1842.36</v>
-      </c>
-      <c r="C134" t="n">
-        <v>195.08</v>
+        <v>519.23</v>
       </c>
     </row>
     <row r="135">
@@ -3050,10 +3060,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>3463.53</v>
-      </c>
-      <c r="C135" t="n">
-        <v>475.5</v>
+        <v>1309.4</v>
       </c>
     </row>
     <row r="136">
@@ -3063,10 +3070,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>928.61</v>
-      </c>
-      <c r="C136" t="n">
-        <v>106.06</v>
+        <v>196.47</v>
       </c>
     </row>
     <row r="137">
@@ -3076,10 +3080,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>151.28</v>
-      </c>
-      <c r="C137" t="n">
-        <v>11.12</v>
+        <v>18.48</v>
       </c>
     </row>
     <row r="138">
@@ -3089,10 +3090,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>111.25</v>
-      </c>
-      <c r="C138" t="n">
-        <v>11.53</v>
+        <v>33.96</v>
       </c>
     </row>
     <row r="139">
@@ -3102,10 +3100,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>514.87</v>
-      </c>
-      <c r="C139" t="n">
-        <v>60.74</v>
+        <v>109.52</v>
       </c>
     </row>
     <row r="140">
@@ -3115,10 +3110,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>358.02</v>
-      </c>
-      <c r="C140" t="n">
-        <v>26.05</v>
+        <v>47.22</v>
       </c>
     </row>
     <row r="141">
@@ -3128,10 +3120,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>51.41</v>
-      </c>
-      <c r="C141" t="n">
-        <v>3.77</v>
+        <v>8.76</v>
       </c>
     </row>
     <row r="142">
@@ -3141,10 +3130,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>655.99</v>
-      </c>
-      <c r="C142" t="n">
-        <v>71.08</v>
+        <v>99.78</v>
       </c>
     </row>
     <row r="143">
@@ -3154,10 +3140,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1481.05</v>
-      </c>
-      <c r="C143" t="n">
-        <v>173.67</v>
+        <v>419.73</v>
       </c>
     </row>
     <row r="144">
@@ -3167,10 +3150,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1050.24</v>
-      </c>
-      <c r="C144" t="n">
-        <v>109.43</v>
+        <v>237.86</v>
       </c>
     </row>
     <row r="145">
@@ -3180,10 +3160,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>407.11</v>
-      </c>
-      <c r="C145" t="n">
-        <v>45.83</v>
+        <v>78.95</v>
       </c>
     </row>
     <row r="146">
@@ -3193,10 +3170,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>1024.04</v>
-      </c>
-      <c r="C146" t="n">
-        <v>99.91</v>
+        <v>202.16</v>
       </c>
     </row>
     <row r="147">
@@ -3206,10 +3180,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>326.07</v>
-      </c>
-      <c r="C147" t="n">
-        <v>29.54</v>
+        <v>55.41</v>
       </c>
     </row>
     <row r="148">
@@ -3219,10 +3190,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1066.97</v>
-      </c>
-      <c r="C148" t="n">
-        <v>101.2</v>
+        <v>206.62</v>
       </c>
     </row>
     <row r="149">
@@ -3232,10 +3200,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>865.4</v>
-      </c>
-      <c r="C149" t="n">
-        <v>76.61</v>
+        <v>117.48</v>
       </c>
     </row>
     <row r="150">
@@ -3245,10 +3210,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>504.06</v>
-      </c>
-      <c r="C150" t="n">
-        <v>42.25</v>
+        <v>86.24</v>
       </c>
     </row>
     <row r="151">
@@ -3258,10 +3220,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>97.42</v>
-      </c>
-      <c r="C151" t="n">
-        <v>13.12</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="152">
@@ -3271,10 +3230,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>426.44</v>
-      </c>
-      <c r="C152" t="n">
-        <v>51.38</v>
+        <v>146.03</v>
       </c>
     </row>
     <row r="153">
@@ -3284,10 +3240,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>27.26</v>
-      </c>
-      <c r="C153" t="n">
-        <v>4.52</v>
+        <v>25.58</v>
       </c>
     </row>
     <row r="154">
@@ -3297,10 +3250,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>117.9</v>
-      </c>
-      <c r="C154" t="n">
-        <v>21.36</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="155">
@@ -3310,10 +3260,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>220.53</v>
-      </c>
-      <c r="C155" t="n">
-        <v>37.06</v>
+        <v>158.69</v>
       </c>
     </row>
     <row r="156">
@@ -3323,10 +3270,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>387.02</v>
-      </c>
-      <c r="C156" t="n">
-        <v>53.54</v>
+        <v>117.53</v>
       </c>
     </row>
     <row r="157">
@@ -3336,10 +3280,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>143.48</v>
-      </c>
-      <c r="C157" t="n">
-        <v>18.84</v>
+        <v>63.12</v>
       </c>
     </row>
     <row r="158">
@@ -3349,10 +3290,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>110.8</v>
-      </c>
-      <c r="C158" t="n">
-        <v>7.76</v>
+        <v>15.26</v>
       </c>
     </row>
     <row r="159">
@@ -3362,10 +3300,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>922.46</v>
-      </c>
-      <c r="C159" t="n">
-        <v>125.3</v>
+        <v>424.26</v>
       </c>
     </row>
     <row r="160">
@@ -3375,10 +3310,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1686.05</v>
-      </c>
-      <c r="C160" t="n">
-        <v>236.62</v>
+        <v>623.23</v>
       </c>
     </row>
     <row r="161">
@@ -3388,10 +3320,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>2720.74</v>
-      </c>
-      <c r="C161" t="n">
-        <v>462.77</v>
+        <v>1347.85</v>
       </c>
     </row>
     <row r="162">
@@ -3401,10 +3330,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>1195.25</v>
-      </c>
-      <c r="C162" t="n">
-        <v>219.66</v>
+        <v>816.1</v>
       </c>
     </row>
     <row r="163">
@@ -3414,10 +3340,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>1388.14</v>
-      </c>
-      <c r="C163" t="n">
-        <v>181.84</v>
+        <v>373.35</v>
       </c>
     </row>
     <row r="164">
@@ -3427,10 +3350,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1070.53</v>
-      </c>
-      <c r="C164" t="n">
-        <v>101.58</v>
+        <v>199.81</v>
       </c>
     </row>
     <row r="165">
@@ -3440,10 +3360,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>55.36</v>
-      </c>
-      <c r="C165" t="n">
-        <v>11.18</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="166">
@@ -3453,10 +3370,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>2260.57</v>
-      </c>
-      <c r="C166" t="n">
-        <v>348.62</v>
+        <v>792.43</v>
       </c>
     </row>
     <row r="167">
@@ -3466,10 +3380,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>319.47</v>
-      </c>
-      <c r="C167" t="n">
-        <v>32.61</v>
+        <v>46.34</v>
       </c>
     </row>
     <row r="168">
@@ -3479,10 +3390,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>15.03</v>
-      </c>
-      <c r="C168" t="n">
-        <v>1.82</v>
+        <v>12.91</v>
       </c>
     </row>
     <row r="169">
@@ -3492,10 +3400,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>1259.48</v>
-      </c>
-      <c r="C169" t="n">
-        <v>200.3</v>
+        <v>719.96</v>
       </c>
     </row>
     <row r="170">
@@ -3505,17 +3410,1134 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>32783.64</v>
-      </c>
-      <c r="C170" t="n">
-        <v>4284.15</v>
+        <v>11480.14</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>MASTERCARD</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>NOMBRE</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>TOTALES</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>C.C. ALBAN BORJA</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>399.17</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>C.C. ALBOCENTRO</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>43.18</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>C.C. ALHAMBRA</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>103.58</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>C.C. AVENTURA PLAZA</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>122.93</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>C.C. BLUE COAST CENTER</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>42.24</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>C.C. BOCCA</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>53.83</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>C.C. CITY MALL</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>835.8</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>C.C. DICENTRO</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>40.04</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>C.C. GARZOCENTRO MALL</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>163.9</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>C.C. GRAN MANZANA</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>49.64</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>C.C. LA PIAZZA CIUDAD CELESTE</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>232.67</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>C.C. LA PIAZZA SAMBORONDON</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>79.61</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>C.C. LA ROTONDA</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>150.12</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>C.C. LA TORRE</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>65.48</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>C.C. LAGOS PLAZA</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>139.25</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>C.C. LAGUNA CLUB</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>C.C. LAS TERRAZAS</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>50.64</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>C.C. MALL DEL PACIFICO</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>903.98</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>C.C. MALL DEL SOL</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>2692.78</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>C.C. MALL DEL SUR</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>805.16</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>C.C. MALL EL FORTIN</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>141.97</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>C.C. ORO PLAZA</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>58.32</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>C.C. PASEO SHOPPING BABAHOYO</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>381.87</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>C.C. PASEO SHOPPING BAHIA</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>179.38</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>C.C. PASEO SHOPPING DAULE</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>43.57</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>C.C. PASEO SHOPPING DURAN</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>665.38</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>C.C. PASEO SHOPPING MACHALA</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>859.56</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>C.C. PASEO SHOPPING MANTA</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>680.24</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>C.C. PASEO SHOPPING MILAGRO</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>429.01</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>C.C. PASEO SHOPPING PENINSULA</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>1026.69</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>C.C. PASEO SHOPPING PLAYAS</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>369.26</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>C.C. PASEO SHOPPING PORTOVIEJO</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>615.1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>C.C. PASEO SHOPPING QUEVEDO</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>428.99</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>C.C. PASEO SHOPPING VIA DAULE</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>456.83</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>C.C. PIAZZA CEIBOS</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>76.78</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>C.C. PIAZZA MACHALA</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>157.38</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>C.C. PIAZZA VILLA CLUB</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>26.96</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>C.C. PLAZA MAYOR</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>66.18</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>C.C. PLAZA NAVONA</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>150.53</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>C.C. PLAZA QUIL</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>374.24</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>C.C. PLAZA TRIANGULO</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>100.22</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>C.C. PLAZA VICTORIA</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>29.49</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>C.C. POLICENTRO</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>727.92</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>C.C. RIOCENTRO CEIBOS</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>1609.61</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>C.C. RIOCENTRO EL DORADO</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>2504.44</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>C.C. RIOCENTRO ENTRE RIOS</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>1079.5</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>C.C. RIOCENTRO NORTE</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>1386.46</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>C.C. RIOCENTRO SUR</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>1133.36</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>C.C. SAMBORONDON PLAZA</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>27.17</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>C.C. SAN MARINO</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>1786.19</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>C.C. TERMINAL TERRESTRE</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>227.26</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>C.C. UNICENTRO</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>9.97</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>C.C. VILLAGE PLAZA</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>680.91</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>25468.95</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>DISCOVER</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>NOMBRE</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>TOTALES</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>C.C. ALBAN BORJA</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>15.92</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>C.C. ALBOCENTRO</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>C.C. ALHAMBRA</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>C.C. AVENTURA PLAZA</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>C.C. BLUE COAST CENTER</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>C.C. BOCCA</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>C.C. CITY MALL</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>44.97</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>C.C. DICENTRO</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>C.C. GARZOCENTRO MALL</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>11.95</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>C.C. GRAN MANZANA</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>C.C. LA PIAZZA CIUDAD CELESTE</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>6.18</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>C.C. LA PIAZZA SAMBORONDON</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>4.23</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>C.C. LA ROTONDA</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>6.83</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>C.C. LA TORRE</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>C.C. LAGOS PLAZA</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>7.17</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>C.C. LAGUNA CLUB</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>C.C. LAS TERRAZAS</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>4.86</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>C.C. MALL DEL PACIFICO</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>75.89</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>C.C. MALL DEL SOL</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>194.36</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>C.C. MALL DEL SUR</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>50.73</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>C.C. MALL EL FORTIN</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>8.62</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>C.C. ORO PLAZA</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>C.C. PASEO SHOPPING BABAHOYO</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>30.1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>C.C. PASEO SHOPPING BAHIA</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>13.17</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>C.C. PASEO SHOPPING DAULE</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>C.C. PASEO SHOPPING DURAN</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>25.18</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>C.C. PASEO SHOPPING MACHALA</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>68.44</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>C.C. PASEO SHOPPING MANTA</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>53.15</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>C.C. PASEO SHOPPING MILAGRO</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>22.45</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>C.C. PASEO SHOPPING PENINSULA</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>48.49</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>C.C. PASEO SHOPPING PLAYAS</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>11.61</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>C.C. PASEO SHOPPING PORTOVIEJO</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>54.15</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>C.C. PASEO SHOPPING QUEVEDO</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>37.58</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>C.C. PASEO SHOPPING VIA DAULE</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>18.35</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>C.C. PIAZZA CEIBOS</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>C.C. PIAZZA MACHALA</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>16.18</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>C.C. PIAZZA VILLA CLUB</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>C.C. PLAZA MAYOR</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>C.C. PLAZA NAVONA</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>9.06</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>C.C. PLAZA QUIL</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>11.33</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>C.C. PLAZA TRIANGULO</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>C.C. PLAZA VICTORIA</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>C.C. POLICENTRO</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>34.77</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>C.C. RIOCENTRO CEIBOS</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>68.1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>C.C. RIOCENTRO EL DORADO</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>135.04</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>C.C. RIOCENTRO ENTRE RIOS</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>76.17</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>C.C. RIOCENTRO NORTE</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>60.73</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>C.C. RIOCENTRO SUR</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>52.79</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>C.C. SAMBORONDON PLAZA</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>C.C. SAN MARINO</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>112.67</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>C.C. TERMINAL TERRESTRE</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>18.01</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>C.C. UNICENTRO</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>C.C. VILLAGE PLAZA</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>32.01</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>1508.21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="A229:B229"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3530,14 +4552,13 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="25.5390625" customWidth="true"/>
-    <col min="2" max="2" width="8.6796875" customWidth="true"/>
-    <col min="3" max="3" width="8.90234375" customWidth="true"/>
+    <col min="2" max="2" width="8.90234375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ELECTRON</t>
+          <t>VISA</t>
         </is>
       </c>
     </row>
@@ -3549,11 +4570,6 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TARJETA</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
           <t>TOTALES</t>
         </is>
       </c>
@@ -3567,9 +4583,6 @@
       <c r="B3" t="n">
         <v>0.7</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.05</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3580,9 +4593,6 @@
       <c r="B4" t="n">
         <v>93.08</v>
       </c>
-      <c r="C4" t="n">
-        <v>1.88</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3593,9 +4603,6 @@
       <c r="B5" t="n">
         <v>645.15</v>
       </c>
-      <c r="C5" t="n">
-        <v>147.3</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3606,9 +4613,6 @@
       <c r="B6" t="n">
         <v>1035.97</v>
       </c>
-      <c r="C6" t="n">
-        <v>522.33</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3619,9 +4623,6 @@
       <c r="B7" t="n">
         <v>4.69</v>
       </c>
-      <c r="C7" t="n">
-        <v>2.68</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3632,9 +4633,6 @@
       <c r="B8" t="n">
         <v>1186.81</v>
       </c>
-      <c r="C8" t="n">
-        <v>198.65</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3645,9 +4643,6 @@
       <c r="B9" t="n">
         <v>65.86</v>
       </c>
-      <c r="C9" t="n">
-        <v>17.23</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3658,9 +4653,6 @@
       <c r="B10" t="n">
         <v>295.79</v>
       </c>
-      <c r="C10" t="n">
-        <v>80.03</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3671,9 +4663,6 @@
       <c r="B11" t="n">
         <v>278.9</v>
       </c>
-      <c r="C11" t="n">
-        <v>28.38</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3684,9 +4673,6 @@
       <c r="B12" t="n">
         <v>34.7</v>
       </c>
-      <c r="C12" t="n">
-        <v>1.18</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3697,14 +4683,11 @@
       <c r="B13" t="n">
         <v>3641.65</v>
       </c>
-      <c r="C13" t="n">
-        <v>999.71</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MCDEBIT</t>
+          <t>AMEX</t>
         </is>
       </c>
     </row>
@@ -3716,11 +4699,6 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TARJETA</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
           <t>TOTALES</t>
         </is>
       </c>
@@ -3732,10 +4710,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="18">
@@ -3745,10 +4720,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>70.79</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.21</v>
+        <v>45.12</v>
       </c>
     </row>
     <row r="19">
@@ -3758,10 +4730,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>129.64</v>
-      </c>
-      <c r="C19" t="n">
-        <v>32.08</v>
+        <v>59.62</v>
       </c>
     </row>
     <row r="20">
@@ -3771,10 +4740,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>134.06</v>
-      </c>
-      <c r="C20" t="n">
-        <v>10.99</v>
+        <v>55.87</v>
       </c>
     </row>
     <row r="21">
@@ -3784,10 +4750,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.33</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="22">
@@ -3797,10 +4760,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>622.11</v>
-      </c>
-      <c r="C22" t="n">
-        <v>30.8</v>
+        <v>286.0</v>
       </c>
     </row>
     <row r="23">
@@ -3810,10 +4770,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>23.71</v>
-      </c>
-      <c r="C23" t="n">
-        <v>3.54</v>
+        <v>22.92</v>
       </c>
     </row>
     <row r="24">
@@ -3823,10 +4780,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>71.14</v>
-      </c>
-      <c r="C24" t="n">
-        <v>18.75</v>
+        <v>39.42</v>
       </c>
     </row>
     <row r="25">
@@ -3836,10 +4790,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>136.52</v>
-      </c>
-      <c r="C25" t="n">
-        <v>4.21</v>
+        <v>75.85</v>
       </c>
     </row>
     <row r="26">
@@ -3849,10 +4800,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>24.53</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.18</v>
+        <v>24.55</v>
       </c>
     </row>
     <row r="27">
@@ -3862,16 +4810,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1215.14</v>
-      </c>
-      <c r="C27" t="n">
-        <v>101.09</v>
+        <v>610.53</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>INTERDIN</t>
+          <t>DINERS</t>
         </is>
       </c>
     </row>
@@ -3883,11 +4828,6 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TARJETA</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
           <t>TOTALES</t>
         </is>
       </c>
@@ -3899,10 +4839,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.0</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="32">
@@ -3912,10 +4849,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>93.08</v>
-      </c>
-      <c r="C32" t="n">
-        <v>18.14</v>
+        <v>67.2</v>
       </c>
     </row>
     <row r="33">
@@ -3925,10 +4859,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>645.15</v>
-      </c>
-      <c r="C33" t="n">
-        <v>66.53</v>
+        <v>236.75</v>
       </c>
     </row>
     <row r="34">
@@ -3938,10 +4869,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1035.97</v>
-      </c>
-      <c r="C34" t="n">
-        <v>65.2</v>
+        <v>165.2</v>
       </c>
     </row>
     <row r="35">
@@ -3951,10 +4879,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.41</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="36">
@@ -3964,10 +4889,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1186.81</v>
-      </c>
-      <c r="C36" t="n">
-        <v>172.46</v>
+        <v>504.35</v>
       </c>
     </row>
     <row r="37">
@@ -3977,10 +4899,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>65.86</v>
-      </c>
-      <c r="C37" t="n">
-        <v>7.6</v>
+        <v>52.7</v>
       </c>
     </row>
     <row r="38">
@@ -3990,10 +4909,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>295.79</v>
-      </c>
-      <c r="C38" t="n">
-        <v>30.77</v>
+        <v>89.82</v>
       </c>
     </row>
     <row r="39">
@@ -4003,10 +4919,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>278.9</v>
-      </c>
-      <c r="C39" t="n">
-        <v>48.42</v>
+        <v>111.61</v>
       </c>
     </row>
     <row r="40">
@@ -4016,10 +4929,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="C40" t="n">
-        <v>7.1</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="41">
@@ -4029,17 +4939,274 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3641.65</v>
-      </c>
-      <c r="C41" t="n">
-        <v>416.63</v>
+        <v>1262.12</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>MASTERCARD</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>NOMBRE</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>TOTALES</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>C.C. BARTOLOME SERRANO</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>C.C. CORAL CENTRO</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>70.79</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>C.C. EL VERGEL</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>129.64</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>C.C. LA PRADERA</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>134.06</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>C.C. LAS ORQUIDEAS</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>C.C. MALL DEL RIO</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>622.11</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>C.C. MILENIUM PLAZA</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>23.71</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>C.C. MIRAFLORES</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>71.14</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>C.C. MONAY SHOPPING</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>136.52</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>C.C. RACAR</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>24.53</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1215.14</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>DISCOVER</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>NOMBRE</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>TOTALES</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>C.C. BARTOLOME SERRANO</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.07</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>C.C. CORAL CENTRO</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>16.33</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>C.C. EL VERGEL</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>9.36</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>C.C. LA PRADERA</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>30.82</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>C.C. LAS ORQUIDEAS</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>C.C. MALL DEL RIO</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>51.06</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>C.C. MILENIUM PLAZA</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>4.69</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>C.C. MIRAFLORES</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>8.03</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>C.C. MONAY SHOPPING</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>C.C. RACAR</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>146.62</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A57:B57"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
